--- a/ch16/WebContent/META-INF/영화정보.xlsx
+++ b/ch16/WebContent/META-INF/영화정보.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="20475" windowHeight="8070"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="21090" windowHeight="7260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="109">
   <si>
     <t>반도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,13 +77,321 @@
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그린북</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드라마</t>
+  </si>
+  <si>
+    <t>한국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체관람가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나홍인, 고민국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댄 스캔론</t>
+  </si>
+  <si>
+    <t>가버나움</t>
+  </si>
+  <si>
+    <t>액션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프랑스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>72분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12세 이상 관람가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피터 패럴리</t>
+  </si>
+  <si>
+    <t>베일리 어게인</t>
+  </si>
+  <si>
+    <t>중국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>74분</t>
+  </si>
+  <si>
+    <t>증국상</t>
+  </si>
+  <si>
+    <t>원더</t>
+  </si>
+  <si>
+    <t>일본</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>76분</t>
+  </si>
+  <si>
+    <t>구수환</t>
+  </si>
+  <si>
+    <t>포드 V 페라리</t>
+  </si>
+  <si>
+    <t>스릴러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>78분</t>
+  </si>
+  <si>
+    <t>나딘 라바키</t>
+  </si>
+  <si>
+    <t>아일라</t>
+  </si>
+  <si>
+    <t>이탈리아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80분</t>
+  </si>
+  <si>
+    <t>주전장</t>
+  </si>
+  <si>
+    <t>호러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>82분</t>
+  </si>
+  <si>
+    <t>연상호</t>
+  </si>
+  <si>
+    <t>당갈</t>
+  </si>
+  <si>
+    <t>스페인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>84분</t>
+  </si>
+  <si>
+    <t>청소년 관람불가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쇼생크 탈출</t>
+  </si>
+  <si>
+    <t>스릴러</t>
+  </si>
+  <si>
+    <t>미국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>86분</t>
+  </si>
+  <si>
+    <t>터미네이터 2:오리지널</t>
+  </si>
+  <si>
+    <t>독일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>88분</t>
+  </si>
+  <si>
+    <t>보헤미안 랩소디</t>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90분</t>
+  </si>
+  <si>
+    <t>덕구</t>
+  </si>
+  <si>
+    <t>92분</t>
+  </si>
+  <si>
+    <t>월-E</t>
+  </si>
+  <si>
+    <t>94분</t>
+  </si>
+  <si>
+    <t>제임스 맨골드</t>
+  </si>
+  <si>
+    <t>나 홀로 집에</t>
+  </si>
+  <si>
+    <t>로맨스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>96분</t>
+  </si>
+  <si>
+    <t>로칸 피네건</t>
+  </si>
+  <si>
+    <t>라이언 일병 구하기</t>
+  </si>
+  <si>
+    <t>98분</t>
+  </si>
+  <si>
+    <t>아이즈 온 미 : 더 무비</t>
+  </si>
+  <si>
+    <t>100분</t>
+  </si>
+  <si>
+    <t>살인의 추억</t>
+  </si>
+  <si>
+    <t>102분</t>
+  </si>
+  <si>
+    <t>빽 투 더 퓨쳐</t>
+  </si>
+  <si>
+    <t>104분</t>
+  </si>
+  <si>
+    <t>강태광</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사운드 오브 뮤직</t>
+  </si>
+  <si>
+    <t>106분</t>
+  </si>
+  <si>
+    <t>매트릭스</t>
+  </si>
+  <si>
+    <t>108분</t>
+  </si>
+  <si>
+    <t>인생은 아름다워</t>
+  </si>
+  <si>
+    <t>110분</t>
+  </si>
+  <si>
+    <t>헬프</t>
+  </si>
+  <si>
+    <t>다큐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>112분</t>
+  </si>
+  <si>
+    <t>포레스트 검프</t>
+  </si>
+  <si>
+    <t>114분</t>
+  </si>
+  <si>
+    <t>15세 이상 관람가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위대한 쇼맨</t>
+  </si>
+  <si>
+    <t>116분</t>
+  </si>
+  <si>
+    <t>클래식</t>
+  </si>
+  <si>
+    <t>118분</t>
+  </si>
+  <si>
+    <t>브라이언 싱어</t>
+  </si>
+  <si>
+    <t>글래디에이터</t>
+  </si>
+  <si>
+    <t>120분</t>
+  </si>
+  <si>
+    <t>센과 치히로의 행방불명</t>
+  </si>
+  <si>
+    <t>122분</t>
+  </si>
+  <si>
+    <t>토이 스토리 3</t>
+  </si>
+  <si>
+    <t>124분</t>
+  </si>
+  <si>
+    <t>타이타닉</t>
+  </si>
+  <si>
+    <t>126분</t>
+  </si>
+  <si>
+    <t>알라딘</t>
+  </si>
+  <si>
+    <t>128분</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +402,15 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -122,21 +440,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -435,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -529,10 +854,1010 @@
         <v>insert into movie_info values(1,'반도','2',sysdate,'3',4,'5','6','7','8','9','10','1','admin');</v>
       </c>
     </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" t="str">
+        <f t="shared" ref="O3:O32" si="0">CONCATENATE("insert into movie_info values(",A3,",'",B3,"','",C3,"',sysdate,'",D3,"',",E3,",'",F3,"','",G3,"','",H3,"','",I3,"','",J3,"','",K3,"','",L3,"','",M3,"');")</f>
+        <v>insert into movie_info values(1,'그린북','드라마',sysdate,'한국',70분,'전체관람가','test','나홍인, 고민국','댄 스캔론','','','','');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into movie_info values(2,'가버나움','액션',sysdate,'프랑스',72분,'12세 이상 관람가','test','나홍인, 고민국','피터 패럴리','','','','');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into movie_info values(3,'베일리 어게인','액션',sysdate,'중국',74분,'전체관람가','test','나홍인, 고민국','증국상','','','','');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into movie_info values(4,'원더','드라마',sysdate,'일본',76분,'전체관람가','test','나홍인, 고민국','구수환','','','','');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into movie_info values(5,'포드 V 페라리','스릴러',sysdate,'인도',78분,'전체관람가','test','나홍인, 고민국','나딘 라바키','','','','');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into movie_info values(6,'아일라','액션',sysdate,'이탈리아',80분,'전체관람가','test','나홍인, 고민국','댄 스캔론','','','','');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" t="s">
+        <v>49</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into movie_info values(7,'주전장','호러',sysdate,'영국',82분,'12세 이상 관람가','test','나홍인, 고민국','연상호','','','','');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into movie_info values(8,'당갈','호러',sysdate,'스페인',84분,'청소년 관람불가','test','나홍인, 고민국','피터 패럴리','','','','');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" t="s">
+        <v>36</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into movie_info values(9,'쇼생크 탈출','스릴러',sysdate,'미국',86분,'전체관람가','test','나홍인, 고민국','구수환','','','','');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into movie_info values(10,'터미네이터 2:오리지널','액션',sysdate,'독일',88분,'전체관람가','test','나홍인, 고민국','나딘 라바키','','','','');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" t="s">
+        <v>22</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into movie_info values(11,'보헤미안 랩소디','호러',sysdate,'기타',90분,'12세 이상 관람가','test','나홍인, 고민국','댄 스캔론','','','','');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into movie_info values(12,'덕구','드라마',sysdate,'한국',92분,'12세 이상 관람가','test','나홍인, 고민국','피터 패럴리','','','','');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" t="s">
+        <v>68</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into movie_info values(13,'월-E','스릴러',sysdate,'프랑스',94분,'청소년 관람불가','test','나홍인, 고민국','제임스 맨골드','','','','');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" t="s">
+        <v>72</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into movie_info values(14,'나 홀로 집에','로맨스',sysdate,'중국',96분,'12세 이상 관람가','test','나홍인, 고민국','로칸 피네건','','','','');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" t="s">
+        <v>28</v>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into movie_info values(15,'라이언 일병 구하기','로맨스',sysdate,'일본',98분,'12세 이상 관람가','test','나홍인, 고민국','피터 패럴리','','','','');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" t="s">
+        <v>49</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into movie_info values(16,'아이즈 온 미 : 더 무비','로맨스',sysdate,'인도',100분,'12세 이상 관람가','test','나홍인, 고민국','연상호','','','','');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" t="s">
+        <v>22</v>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into movie_info values(17,'살인의 추억','스릴러',sysdate,'이탈리아',102분,'12세 이상 관람가','test','나홍인, 고민국','댄 스캔론','','','','');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" t="s">
+        <v>81</v>
+      </c>
+      <c r="O20" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into movie_info values(18,'빽 투 더 퓨쳐','스릴러',sysdate,'영국',104분,'12세 이상 관람가','test','나홍인, 고민국','강태광','','','','');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" t="s">
+        <v>36</v>
+      </c>
+      <c r="O21" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into movie_info values(19,'사운드 오브 뮤직','드라마',sysdate,'스페인',106분,'12세 이상 관람가','test','나홍인, 고민국','구수환','','','','');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" t="s">
+        <v>68</v>
+      </c>
+      <c r="O22" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into movie_info values(20,'매트릭스','액션',sysdate,'미국',108분,'12세 이상 관람가','test','나홍인, 고민국','제임스 맨골드','','','','');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" t="s">
+        <v>72</v>
+      </c>
+      <c r="O23" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into movie_info values(21,'인생은 아름다워','로맨스',sysdate,'독일',110분,'12세 이상 관람가','test','나홍인, 고민국','로칸 피네건','','','','');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" t="s">
+        <v>28</v>
+      </c>
+      <c r="O24" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into movie_info values(22,'헬프','다큐',sysdate,'기타',112분,'전체관람가','test','나홍인, 고민국','피터 패럴리','','','','');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25" t="s">
+        <v>93</v>
+      </c>
+      <c r="G25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" t="s">
+        <v>32</v>
+      </c>
+      <c r="O25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into movie_info values(23,'포레스트 검프','드라마',sysdate,'한국',114분,'15세 이상 관람가','test','나홍인, 고민국','증국상','','','','');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>95</v>
+      </c>
+      <c r="F26" t="s">
+        <v>93</v>
+      </c>
+      <c r="G26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" t="s">
+        <v>36</v>
+      </c>
+      <c r="O26" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into movie_info values(24,'위대한 쇼맨','액션',sysdate,'프랑스',116분,'15세 이상 관람가','test','나홍인, 고민국','구수환','','','','');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" t="s">
+        <v>97</v>
+      </c>
+      <c r="F27" t="s">
+        <v>93</v>
+      </c>
+      <c r="G27" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" t="s">
+        <v>98</v>
+      </c>
+      <c r="O27" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into movie_info values(25,'클래식','호러',sysdate,'중국',118분,'15세 이상 관람가','test','나홍인, 고민국','브라이언 싱어','','','','');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" t="s">
+        <v>100</v>
+      </c>
+      <c r="F28" t="s">
+        <v>93</v>
+      </c>
+      <c r="G28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" t="s">
+        <v>49</v>
+      </c>
+      <c r="O28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into movie_info values(26,'글래디에이터','드라마',sysdate,'일본',120분,'15세 이상 관람가','test','나홍인, 고민국','연상호','','','','');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" t="s">
+        <v>102</v>
+      </c>
+      <c r="F29" t="s">
+        <v>93</v>
+      </c>
+      <c r="G29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" t="s">
+        <v>21</v>
+      </c>
+      <c r="I29" t="s">
+        <v>98</v>
+      </c>
+      <c r="O29" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into movie_info values(27,'센과 치히로의 행방불명','호러',sysdate,'인도',122분,'15세 이상 관람가','test','나홍인, 고민국','브라이언 싱어','','','','');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" t="s">
+        <v>104</v>
+      </c>
+      <c r="F30" t="s">
+        <v>53</v>
+      </c>
+      <c r="G30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I30" t="s">
+        <v>49</v>
+      </c>
+      <c r="O30" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into movie_info values(28,'토이 스토리 3','액션',sysdate,'이탈리아',124분,'청소년 관람불가','test','나홍인, 고민국','연상호','','','','');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" t="s">
+        <v>106</v>
+      </c>
+      <c r="F31" t="s">
+        <v>53</v>
+      </c>
+      <c r="G31" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" t="s">
+        <v>21</v>
+      </c>
+      <c r="I31" t="s">
+        <v>32</v>
+      </c>
+      <c r="O31" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into movie_info values(29,'타이타닉','드라마',sysdate,'영국',126분,'청소년 관람불가','test','나홍인, 고민국','증국상','','','','');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" t="s">
+        <v>108</v>
+      </c>
+      <c r="F32" t="s">
+        <v>53</v>
+      </c>
+      <c r="G32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" t="s">
+        <v>21</v>
+      </c>
+      <c r="I32" t="s">
+        <v>98</v>
+      </c>
+      <c r="O32" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into movie_info values(30,'알라딘','호러',sysdate,'스페인',128분,'청소년 관람불가','test','나홍인, 고민국','브라이언 싱어','','','','');</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" display="https://movie.naver.com/movie/sdb/browsing/bmovie.nhn?genre=1"/>
+    <hyperlink ref="C6" r:id="rId2" display="https://movie.naver.com/movie/sdb/browsing/bmovie.nhn?genre=1"/>
+    <hyperlink ref="C9" r:id="rId3" display="https://movie.naver.com/movie/sdb/browsing/bmovie.nhn?genre=1"/>
+    <hyperlink ref="C14" r:id="rId4" display="https://movie.naver.com/movie/sdb/browsing/bmovie.nhn?genre=1"/>
+    <hyperlink ref="C21" r:id="rId5" display="https://movie.naver.com/movie/sdb/browsing/bmovie.nhn?genre=1"/>
+    <hyperlink ref="C25" r:id="rId6" display="https://movie.naver.com/movie/sdb/browsing/bmovie.nhn?genre=1"/>
+    <hyperlink ref="C28" r:id="rId7" display="https://movie.naver.com/movie/sdb/browsing/bmovie.nhn?genre=1"/>
+    <hyperlink ref="C31" r:id="rId8" display="https://movie.naver.com/movie/sdb/browsing/bmovie.nhn?genre=1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
